--- a/discord.xlsx
+++ b/discord.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23602"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{976B7113-4685-4D2E-B0AD-141863C7FBA2}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{322E3585-4B57-4880-A90F-920CFAE0BA40}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{cde586de-f1d9-4545-b367-165e5616724e}"</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="261">
   <si>
     <t>szP5EmE9GUuaTWiQId6MydDfwNyCRHJLvdx01IaP_JNUMlVMV1dXRTI3MTQ4NEI3WUZBUzhLOU9RRS4u</t>
   </si>
@@ -100,15 +100,6 @@
     <t>YOMAMA#2051</t>
   </si>
   <si>
-    <t>farooqiu@uwindsor.ca</t>
-  </si>
-  <si>
-    <t>Usman Farooqi</t>
-  </si>
-  <si>
-    <t>Chobaka78#5816</t>
-  </si>
-  <si>
     <t>borna113@uwindsor.ca</t>
   </si>
   <si>
@@ -116,6 +107,714 @@
   </si>
   <si>
     <t>jere_mie#9432</t>
+  </si>
+  <si>
+    <t>pham11z@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Henry Pham</t>
+  </si>
+  <si>
+    <t>Henry Pham#3798</t>
+  </si>
+  <si>
+    <t>jraig111@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Antonios-Joseph Jraige</t>
+  </si>
+  <si>
+    <t>Funheal#7929</t>
+  </si>
+  <si>
+    <t>kouhang@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Keon Kouhang</t>
+  </si>
+  <si>
+    <t>SpaceCadet#0044</t>
+  </si>
+  <si>
+    <t>ghanemg@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ghanem Ghanem</t>
+  </si>
+  <si>
+    <t>G^2#7093</t>
+  </si>
+  <si>
+    <t>liu61@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Kevin Liu</t>
+  </si>
+  <si>
+    <t>demi sux#0001</t>
+  </si>
+  <si>
+    <t>albalkhl@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Laila Albalkhi</t>
+  </si>
+  <si>
+    <t>laila#5624</t>
+  </si>
+  <si>
+    <t>kilbouri@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Isaac Kilbourne</t>
+  </si>
+  <si>
+    <t>Void Venom#4067</t>
+  </si>
+  <si>
+    <t>quiringc@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Caden Quiring</t>
+  </si>
+  <si>
+    <t>_L#5047</t>
+  </si>
+  <si>
+    <t>pereira9@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Sophie Pereira</t>
+  </si>
+  <si>
+    <t>sp99#3290</t>
+  </si>
+  <si>
+    <t>racicot3@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Andre Racicot</t>
+  </si>
+  <si>
+    <t>Goliath_995#7453</t>
+  </si>
+  <si>
+    <t>patel4d3@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Rushi Patel</t>
+  </si>
+  <si>
+    <t>RD#8559</t>
+  </si>
+  <si>
+    <t>mohame92@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Yahye Mohamed</t>
+  </si>
+  <si>
+    <t>BlackSlayer#0808</t>
+  </si>
+  <si>
+    <t>bhand115@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Satyagni Bhandari</t>
+  </si>
+  <si>
+    <t>MobbSchleep#6659</t>
+  </si>
+  <si>
+    <t>farhat21@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Mohamed  Ali Farhat</t>
+  </si>
+  <si>
+    <t>Floppy Tech#7333</t>
+  </si>
+  <si>
+    <t>parikh81@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Parin Parikh</t>
+  </si>
+  <si>
+    <t>Parin#9660</t>
+  </si>
+  <si>
+    <t>fuert11g@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Cole Fuerth</t>
+  </si>
+  <si>
+    <t>not cole#2286</t>
+  </si>
+  <si>
+    <t>anjum111@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Abdulwahhab Anjum</t>
+  </si>
+  <si>
+    <t>You#4148</t>
+  </si>
+  <si>
+    <t>barnett1@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Joshua Barnett</t>
+  </si>
+  <si>
+    <t>calaj@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Jason Cala</t>
+  </si>
+  <si>
+    <t>Mayo#0911</t>
+  </si>
+  <si>
+    <t>espinos@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Daniela Espinosa-Perdomo</t>
+  </si>
+  <si>
+    <t>daniiespinosa#2023</t>
+  </si>
+  <si>
+    <t>thakerh@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Harshil Thaker</t>
+  </si>
+  <si>
+    <t>Harshil#8197</t>
+  </si>
+  <si>
+    <t>storeyt@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Timothy Storey</t>
+  </si>
+  <si>
+    <t>SlimJim#0313</t>
+  </si>
+  <si>
+    <t>mehta32@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Shubham Mehta</t>
+  </si>
+  <si>
+    <t>metz#4170</t>
+  </si>
+  <si>
+    <t>sharma3e@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ananya Sharma</t>
+  </si>
+  <si>
+    <t>jjjjjj#3387</t>
+  </si>
+  <si>
+    <t>patel891@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Dhwani Nileshkumar Patel</t>
+  </si>
+  <si>
+    <t>Dhwani#2704</t>
+  </si>
+  <si>
+    <t>hornseyj@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Jaxon Hornsey</t>
+  </si>
+  <si>
+    <t>Eat Sum Food#9298</t>
+  </si>
+  <si>
+    <t>ciesluk@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Tom Cieslukowski</t>
+  </si>
+  <si>
+    <t>Tom C#3899</t>
+  </si>
+  <si>
+    <t>chahinek@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Karim Chahine</t>
+  </si>
+  <si>
+    <t>baydaaat#9884</t>
+  </si>
+  <si>
+    <t>rizvic@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Adem Rizvic</t>
+  </si>
+  <si>
+    <t>Rizzo#1571</t>
+  </si>
+  <si>
+    <t>wojcikm@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Matthew Wojcik</t>
+  </si>
+  <si>
+    <t>Fastlich#6110</t>
+  </si>
+  <si>
+    <t>ahmad12p@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Hassan Ahmad</t>
+  </si>
+  <si>
+    <t>MasterHUA#9402</t>
+  </si>
+  <si>
+    <t>maill11f@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Brandon Mailloux</t>
+  </si>
+  <si>
+    <t>brandonjm#3153</t>
+  </si>
+  <si>
+    <t>schneidm@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Michael Schneider</t>
+  </si>
+  <si>
+    <t>Schneider#3677</t>
+  </si>
+  <si>
+    <t>mcnamar3@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ainsley McNamara</t>
+  </si>
+  <si>
+    <t>SullMoon#6492</t>
+  </si>
+  <si>
+    <t>liangsu@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Jeffery Liang-Sun</t>
+  </si>
+  <si>
+    <t>Luc#0100</t>
+  </si>
+  <si>
+    <t>strelko@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Dora Strelkova</t>
+  </si>
+  <si>
+    <t>dorastrelko#0178</t>
+  </si>
+  <si>
+    <t>potma11@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Jesse Potma</t>
+  </si>
+  <si>
+    <t>Xeffli#7641</t>
+  </si>
+  <si>
+    <t>dunn11o@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Crystal Dunn</t>
+  </si>
+  <si>
+    <t>crychan#7425</t>
+  </si>
+  <si>
+    <t>multani2@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Manjinder Singh Multani</t>
+  </si>
+  <si>
+    <t>MLTN6964#2129</t>
+  </si>
+  <si>
+    <t>abulibd1@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Aya Abu-Libdeh</t>
+  </si>
+  <si>
+    <t>aya#0023</t>
+  </si>
+  <si>
+    <t>kridli@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Zaid Kridli</t>
+  </si>
+  <si>
+    <t>BoGlo#7536</t>
+  </si>
+  <si>
+    <t>singh43@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Jashanpreet Singh</t>
+  </si>
+  <si>
+    <t>jashan115#7149</t>
+  </si>
+  <si>
+    <t>grant127@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Andrew Grant</t>
+  </si>
+  <si>
+    <t>AndrewGrant#5377</t>
+  </si>
+  <si>
+    <t>mohamm53@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Abdullah Mohammed Ali</t>
+  </si>
+  <si>
+    <t>Abdul2K#8212</t>
+  </si>
+  <si>
+    <t>atwal2@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Anmol Atwal</t>
+  </si>
+  <si>
+    <t>MolTheGreat#1793</t>
+  </si>
+  <si>
+    <t>klass11b@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Matthew Klassen</t>
+  </si>
+  <si>
+    <t>Matthew K#3756</t>
+  </si>
+  <si>
+    <t>tuk@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Kelvin Tu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ˞˞˞˞˞˞˞˞˞˞˞˞˞˞˞˞˞˞˞˞#4130</t>
+  </si>
+  <si>
+    <t>pappp@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Patricia Papp</t>
+  </si>
+  <si>
+    <t>PatP#5900</t>
+  </si>
+  <si>
+    <t>robert23@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Evan Robert</t>
+  </si>
+  <si>
+    <t>Evan7#5603</t>
+  </si>
+  <si>
+    <t>descham3@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Jean-Luc Deschamps</t>
+  </si>
+  <si>
+    <t>salami#2304</t>
+  </si>
+  <si>
+    <t>thomas53@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Hunter Thomas</t>
+  </si>
+  <si>
+    <t>HauntedGaming20#9999</t>
+  </si>
+  <si>
+    <t>sadikj@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Joseph Sadik</t>
+  </si>
+  <si>
+    <t>Joseph S#3504</t>
+  </si>
+  <si>
+    <t>gagnie31@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Grace Gagnier</t>
+  </si>
+  <si>
+    <t>CoffeeCube#8720</t>
+  </si>
+  <si>
+    <t>chaux@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ignacio Chaux</t>
+  </si>
+  <si>
+    <t>Chacho#3836</t>
+  </si>
+  <si>
+    <t>altabba@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ghenwa Altabbaa</t>
+  </si>
+  <si>
+    <t>Jinn#2020</t>
+  </si>
+  <si>
+    <t>coomben@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Nickolas Coombe</t>
+  </si>
+  <si>
+    <t>nickthegamer5#9075</t>
+  </si>
+  <si>
+    <t>sarwehl@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Lucas Sarweh</t>
+  </si>
+  <si>
+    <t>Larcus#2837</t>
+  </si>
+  <si>
+    <t>sargam@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Dew Sargam</t>
+  </si>
+  <si>
+    <t>etterlin#5255</t>
+  </si>
+  <si>
+    <t>adeboa@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Amanda Adebo</t>
+  </si>
+  <si>
+    <t>Amanda.A#5089</t>
+  </si>
+  <si>
+    <t>wilso138@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Jacob Wilson</t>
+  </si>
+  <si>
+    <t>Wilsonation#8288</t>
+  </si>
+  <si>
+    <t>bhayanid@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Dhruvin Bhayani</t>
+  </si>
+  <si>
+    <t>Dhrûvîñ#8605</t>
+  </si>
+  <si>
+    <t>harvey31@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ryan Harvey</t>
+  </si>
+  <si>
+    <t>RyanH#9615</t>
+  </si>
+  <si>
+    <t>reen@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Harnoor Reen</t>
+  </si>
+  <si>
+    <t>Harnoor#1244</t>
+  </si>
+  <si>
+    <t>wang25@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Peng Wang</t>
+  </si>
+  <si>
+    <t>Sheep#7461</t>
+  </si>
+  <si>
+    <t>belangeq@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Matthew Belanger</t>
+  </si>
+  <si>
+    <t>Charles_Quizmo#1318</t>
+  </si>
+  <si>
+    <t>bornais3@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Justin Bornais</t>
+  </si>
+  <si>
+    <t>Justin Bornais#3073</t>
+  </si>
+  <si>
+    <t>connellm@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Matthew Connell</t>
+  </si>
+  <si>
+    <t>connellm#3328</t>
+  </si>
+  <si>
+    <t>boiscla@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Nicholas Boisclair</t>
+  </si>
+  <si>
+    <t>nboisclair64#3835</t>
+  </si>
+  <si>
+    <t>chugh2@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Parv Chugh</t>
+  </si>
+  <si>
+    <t>TAlkSICk#0497</t>
+  </si>
+  <si>
+    <t>sumram@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Mukesh Sumra</t>
+  </si>
+  <si>
+    <t>sumra22#3336</t>
+  </si>
+  <si>
+    <t>patel283@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Kevin Patel</t>
+  </si>
+  <si>
+    <t>Kev In#5636</t>
+  </si>
+  <si>
+    <t>ali111o@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Nimco Ali</t>
+  </si>
+  <si>
+    <t>Nimco A#0196</t>
+  </si>
+  <si>
+    <t>raza71@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ejaz-ul-Hussain Raza</t>
+  </si>
+  <si>
+    <t>Vladimir Lenin#9677</t>
+  </si>
+  <si>
+    <t>rammalf@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Fatema Rammal</t>
+  </si>
+  <si>
+    <t>rammalf#8644</t>
+  </si>
+  <si>
+    <t>saini12r@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Gurkirat Saini</t>
+  </si>
+  <si>
+    <t>Gurkirat S.#4275</t>
+  </si>
+  <si>
+    <t>senjalia@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Ankit Kishorbhai Senjaliya</t>
+  </si>
+  <si>
+    <t>Senjaliya Ankit#6831</t>
+  </si>
+  <si>
+    <t>botham1@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Andrew Botham</t>
+  </si>
+  <si>
+    <t>Batmon#9817</t>
+  </si>
+  <si>
+    <t>singh8p@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Rajan Singh</t>
+  </si>
+  <si>
+    <t>rajan#9913</t>
+  </si>
+  <si>
+    <t>tasevska@uwindsor.ca</t>
+  </si>
+  <si>
+    <t>Angelina Tasevski</t>
+  </si>
+  <si>
+    <t>_xangex_#3003</t>
   </si>
 </sst>
 </file>
@@ -200,8 +899,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1BE71BF-D9B1-425F-B2B2-5D9F0F0D959B}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F9" xr:uid="{C2835541-1615-4713-8CC5-67DBF559003D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1BE71BF-D9B1-425F-B2B2-5D9F0F0D959B}" name="Table1" displayName="Table1" ref="A1:F86" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F86" xr:uid="{C2835541-1615-4713-8CC5-67DBF559003D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BDCAF7FA-7B59-4B7B-9960-094EF99FCAFE}" name="ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{B41C6386-FD01-4A8D-B8BC-27C3E1292644}" name="Start time" dataDxfId="4"/>
@@ -539,15 +1238,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EF01ED-8D41-496B-B4CD-372CEFBEDAE7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,7 +1353,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>44152.970335648148</v>
@@ -673,13 +1373,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>44152.972662037035</v>
+        <v>44152.97552083333</v>
       </c>
       <c r="C7" s="3">
-        <v>44152.972916666666</v>
+        <v>44152.97556712963</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -693,13 +1393,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>44152.974143518521</v>
+        <v>44153.129907407405</v>
       </c>
       <c r="C8" s="3">
-        <v>44152.974224537036</v>
+        <v>44153.130115740743</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -713,23 +1413,1566 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>44152.97552083333</v>
+        <v>44164.801307870373</v>
       </c>
       <c r="C9" s="3">
-        <v>44152.97556712963</v>
+        <v>44164.801354166666</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44164.860219907408</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44164.860462962963</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44164.930925925924</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44164.931064814817</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44165.662256944444</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44165.662465277775</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B13" s="3">
+        <v>44167.749976851854</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44167.7500462963</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44167.750023148146</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44167.750138888892</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44167.753530092596</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44167.753611111111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44167.757662037038</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44167.757708333331</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44167.760358796295</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44167.760462962964</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44167.760914351849</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44167.761018518519</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44167.761967592596</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44167.762106481481</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44167.766944444447</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44167.767094907409</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44167.767268518517</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44167.767418981479</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44167.774212962962</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44167.774386574078</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44167.774340277778</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44167.774444444447</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44167.774814814817</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44167.774895833332</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44167.778067129628</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44167.778182870374</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44167.778506944444</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44167.77857638889</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44167.778969907406</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44167.779016203705</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44167.781678240739</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44167.781736111108</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44167.782604166663</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44167.782870370371</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>49</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44167.785081018519</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44167.785173611112</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
+        <v>50</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44167.794259259259</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44167.794444444444</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44167.807164351849</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44167.807442129626</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
+        <v>52</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44167.815787037034</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44167.815844907411</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44167.816412037035</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44167.81653935185</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
+        <v>54</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44167.822638888887</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44167.822685185187</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44167.822696759256</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44167.822997685187</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
+        <v>56</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44167.827048611114</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44167.827210648145</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44167.829942129632</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44167.830081018517</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
+        <v>58</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44167.839421296296</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44167.839606481481</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
+        <v>59</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44167.840821759259</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44167.841249999998</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44167.843159722222</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44167.843344907407</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
+        <v>61</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44167.865405092591</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44167.86550925926</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44167.867280092592</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44167.867627314816</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44167.867777777778</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44167.867905092593</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44167.86787037037</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44167.867997685185</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>65</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44167.871655092589</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44167.871759259258</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>66</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44167.87059027778</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44167.871886574074</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>67</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44167.873043981483</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44167.873194444444</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44167.875578703701</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44167.876226851855</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>69</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44167.87945601852</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44167.879513888889</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>70</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44167.882141203707</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44167.882337962961</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>71</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44167.88559027778</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44167.885787037034</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>72</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44167.895277777781</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44167.895590277774</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>73</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44167.89471064815</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44167.895983796298</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>74</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44167.897719907407</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44167.8981712963</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>75</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44167.921898148146</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44167.922060185185</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>76</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44167.922164351854</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44167.922418981485</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>77</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44167.922465277778</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44167.922569444447</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>78</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44167.922662037039</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44167.922800925924</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>79</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44167.922361111108</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44167.922974537039</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>80</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44167.923773148148</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44167.923946759256</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>81</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44167.934814814813</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44167.934953703705</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>82</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44167.943043981482</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44167.94321759259</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>83</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44167.951111111113</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44167.951516203706</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>84</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44168.031967592593</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44168.032349537039</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>85</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44168.111354166664</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44168.11141203704</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>86</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44168.325520833336</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44168.326122685183</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>87</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44168.334918981483</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44168.334965277776</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>88</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44168.548576388886</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44168.548842592594</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>89</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44168.58085648148</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44168.581030092595</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>90</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44168.635057870371</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44168.635243055556</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>91</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44168.654629629629</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44168.654756944445</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>92</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44168.661111111112</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44168.661238425928</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>93</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44168.66202546296</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44168.662673611114</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>94</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44168.670335648145</v>
+      </c>
+      <c r="C75" s="3">
+        <v>44168.670520833337</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>95</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44168.677129629628</v>
+      </c>
+      <c r="C76" s="3">
+        <v>44168.677210648151</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>96</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44168.699456018519</v>
+      </c>
+      <c r="C77" s="3">
+        <v>44168.699594907404</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>99</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44168.830694444441</v>
+      </c>
+      <c r="C78" s="3">
+        <v>44168.830763888887</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>100</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44168.83662037037</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44168.836689814816</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>101</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44168.838796296295</v>
+      </c>
+      <c r="C80" s="3">
+        <v>44168.838935185187</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>102</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44168.903043981481</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44168.903425925928</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>103</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44169.062743055554</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44169.063379629632</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>104</v>
+      </c>
+      <c r="B83" s="3">
+        <v>44169.362314814818</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44169.362488425926</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>105</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44169.650057870371</v>
+      </c>
+      <c r="C84" s="3">
+        <v>44169.650324074071</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>106</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44169.808263888888</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44169.808680555558</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>107</v>
+      </c>
+      <c r="B86" s="3">
+        <v>44169.84574074074</v>
+      </c>
+      <c r="C86" s="3">
+        <v>44169.846076388887</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="F88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
